--- a/requirements/MOSIP_Authentication_Authorization_Requirements_Consolidated List.xlsx
+++ b/requirements/MOSIP_Authentication_Authorization_Requirements_Consolidated List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C94B4662-AF81-4DFF-ABA0-9299D263A4EE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B6611761-807F-4150-9744-E31C9FB10E21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7245" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="90">
   <si>
     <r>
       <t xml:space="preserve">Authentication Requirements: </t>
@@ -377,6 +377,63 @@
   <si>
     <t>This is to authenticate if request is from a valid TSP
 1. Should MOSIP authenticate each level within the TSP hierarchy or should MOSIP authenticate only the lowest node?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;Ramesh - 05Dec'18&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+i. Codes should be assigned to each level of TSP which is directly accessing MOSIP - EG: One code each for different agencies of HDFC
+ii. One TSP Organization can have multiple TSP codes with different privileges – EG: HDFC can have multiple TSP codes for different privileges
+iii. For an API call from auth perspective, the final node of TSP interacting with MOSIP needs to be authenticated 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;Ramesh - 05Dec'18&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Bookman Old Style"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+i. Should have a mechanism to setup the license key with a specific policy (Length, validity, key replacement etc)
+ii. Consider LDAP to store TSP privileges for a specific Key
+iii. License Key Generation to be invoked through admin portal with an approval process &gt; Key to be associated to the TSP ID &gt; TSP should have a mechanism to access the key – New requirement – To be evaluated
+iv. TSP and key mapping should be derived by MOSIP
+v. Key should be passed by TSP as part of auth requests
+vi. Combination of TSP and key should help derive the transactions the TSP is authorized to
+vii. One TSP can be mapped to multiple license keys (1:N mapping of TSP:License Key), each key having different privileges
+viii. Country can decide if each TSP should be given different license keys or different Codes per TSP, for different privileges</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -684,15 +741,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,6 +758,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2014,14 +2071,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2407,14 +2464,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2776,14 +2833,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -3445,33 +3502,33 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:25" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
+    <row r="27" spans="1:25" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32" t="s">
+    <row r="28" spans="1:25" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="31" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3511,14 +3568,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -3981,7 +4038,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3991,19 +4048,19 @@
     <col min="3" max="3" width="71" style="8" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="45" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -4026,7 +4083,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:25" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="7" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -4042,7 +4099,9 @@
       <c r="E3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4079,7 +4138,9 @@
       <c r="E4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4100,7 +4161,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -4113,10 +4174,12 @@
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4153,7 +4216,9 @@
       <c r="E6" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4348,14 +4413,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -4672,6 +4737,41 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="CTDocLibrary" ma:contentTypeID="0x010100C5D5EC2DEF914E3897774E287F80A8FB00C54CAAC0C88AA446A5AFE942C68BA98B" ma:contentTypeVersion="8" ma:contentTypeDescription="My Content Type" ma:contentTypeScope="" ma:versionID="8509de5a9a506e3b9b1fe93a7c193cee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="fd9ad297-cc8c-4afc-b828-e13c9647a5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b380538c208c9f76b13ef3dbebc9c2d9" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4878,56 +4978,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E8A634F-74FC-499D-ABEA-0CA6D30F983F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4950,9 +5004,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3174CE2-5708-4158-93D0-CBBFFB333158}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E8A634F-74FC-499D-ABEA-0CA6D30F983F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>